--- a/output/StructureDefinition-HCXOrganizationExtension.xlsx
+++ b/output/StructureDefinition-HCXOrganizationExtension.xlsx
@@ -212,7 +212,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/questionnaireresponse-signature</t>
+    <t>https://swasth-digital-health-foundation.github.io/standards/output/StructureDefinition-HCXOrganizationExtension.html</t>
   </si>
   <si>
     <t>N/A</t>
